--- a/Role Matrix Eductiv.xlsx
+++ b/Role Matrix Eductiv.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Web UI" sheetId="1" r:id="rId1"/>
     <sheet name="RestAPI" sheetId="2" r:id="rId2"/>
     <sheet name="Mobile" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
   <si>
     <t>Alterra Academy</t>
   </si>
@@ -48,12 +49,6 @@
     <t>Authentication</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Feature used to create new account</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -90,45 +85,6 @@
     <t>Feature used to view or searching Course by Top Course</t>
   </si>
   <si>
-    <t>All Course</t>
-  </si>
-  <si>
-    <t>Feature used to view All Course</t>
-  </si>
-  <si>
-    <t>Courses</t>
-  </si>
-  <si>
-    <t>Enroll Course</t>
-  </si>
-  <si>
-    <t>Feature used to join in the course</t>
-  </si>
-  <si>
-    <t>About Course</t>
-  </si>
-  <si>
-    <t>Feature used to view the explanation of the course</t>
-  </si>
-  <si>
-    <t>Lessons Course</t>
-  </si>
-  <si>
-    <t>Feature used to view the learning that is on the course</t>
-  </si>
-  <si>
-    <t>Tools Course</t>
-  </si>
-  <si>
-    <t>Feature used to view what tools are needed in this course</t>
-  </si>
-  <si>
-    <t>Review Course</t>
-  </si>
-  <si>
-    <t>Feature used to see reviews this course</t>
-  </si>
-  <si>
     <t>Slide Course</t>
   </si>
   <si>
@@ -189,21 +145,9 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>Feature used to view all the certificates that we have</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Add Account</t>
-  </si>
-  <si>
-    <t>Feature used to add new account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dahsboard </t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
@@ -213,9 +157,6 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Feature used to view total members, courses,and request</t>
-  </si>
-  <si>
     <t>Feature used to view members and add members</t>
   </si>
   <si>
@@ -226,6 +167,306 @@
   </si>
   <si>
     <t>3. Mobile APP</t>
+  </si>
+  <si>
+    <t>Form Request</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Feature used to create new request</t>
+  </si>
+  <si>
+    <t>Feature used to view FAQ</t>
+  </si>
+  <si>
+    <t>Detail Course</t>
+  </si>
+  <si>
+    <t>Feature used to view detail course</t>
+  </si>
+  <si>
+    <t>List Course</t>
+  </si>
+  <si>
+    <t>Feature used to searching course and sort course by latest, longest, highest and lowest rating</t>
+  </si>
+  <si>
+    <t>Feature used to view all and download certificates that we have</t>
+  </si>
+  <si>
+    <t>2. Rest API</t>
+  </si>
+  <si>
+    <t>Post Category</t>
+  </si>
+  <si>
+    <t>Get Category</t>
+  </si>
+  <si>
+    <t>Get Category Detail</t>
+  </si>
+  <si>
+    <t>Put Category</t>
+  </si>
+  <si>
+    <t>Delete Category</t>
+  </si>
+  <si>
+    <t>Used to view all category</t>
+  </si>
+  <si>
+    <t>Used to view category by id</t>
+  </si>
+  <si>
+    <t>Used to create new category</t>
+  </si>
+  <si>
+    <t>Used to update category</t>
+  </si>
+  <si>
+    <t>Used to delete category</t>
+  </si>
+  <si>
+    <t>Post User</t>
+  </si>
+  <si>
+    <t>Get User</t>
+  </si>
+  <si>
+    <t>Get User Detail</t>
+  </si>
+  <si>
+    <t>Put User</t>
+  </si>
+  <si>
+    <t>Delete User</t>
+  </si>
+  <si>
+    <t>Used to create new user</t>
+  </si>
+  <si>
+    <t>Used to view all user</t>
+  </si>
+  <si>
+    <t>Used to view user by id</t>
+  </si>
+  <si>
+    <t>Used to update user</t>
+  </si>
+  <si>
+    <t>Used to delete user</t>
+  </si>
+  <si>
+    <t>Post Course</t>
+  </si>
+  <si>
+    <t>Get Course</t>
+  </si>
+  <si>
+    <t>Get Course Detail</t>
+  </si>
+  <si>
+    <t>Delete Course</t>
+  </si>
+  <si>
+    <t>Put Course</t>
+  </si>
+  <si>
+    <t>Used to create new course</t>
+  </si>
+  <si>
+    <t>Used to view all course</t>
+  </si>
+  <si>
+    <t>Used to view course by id</t>
+  </si>
+  <si>
+    <t>Used to update course</t>
+  </si>
+  <si>
+    <t>Used to delete course</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Enrolled Course</t>
+  </si>
+  <si>
+    <t>Post Enrolled Course</t>
+  </si>
+  <si>
+    <t>Get Enrolled Course</t>
+  </si>
+  <si>
+    <t>Get Enrolled Course Detail</t>
+  </si>
+  <si>
+    <t>Delete Enrolled Course</t>
+  </si>
+  <si>
+    <t>Used to create new enrolled course</t>
+  </si>
+  <si>
+    <t>Used to view all enrolled course</t>
+  </si>
+  <si>
+    <t>Used to view enrolled course by id</t>
+  </si>
+  <si>
+    <t>Used to delete enrolled course</t>
+  </si>
+  <si>
+    <t>Post Tool</t>
+  </si>
+  <si>
+    <t>Get Tool</t>
+  </si>
+  <si>
+    <t>Get Tool Detail</t>
+  </si>
+  <si>
+    <t>Put Tool</t>
+  </si>
+  <si>
+    <t>Delete Tool</t>
+  </si>
+  <si>
+    <t>Post Section</t>
+  </si>
+  <si>
+    <t>Get Section</t>
+  </si>
+  <si>
+    <t>Get Section Detail</t>
+  </si>
+  <si>
+    <t>Put Section</t>
+  </si>
+  <si>
+    <t>Delete Section</t>
+  </si>
+  <si>
+    <t>Used to create new section</t>
+  </si>
+  <si>
+    <t>Used to view all section</t>
+  </si>
+  <si>
+    <t>Used to view section by id</t>
+  </si>
+  <si>
+    <t>Used to update section</t>
+  </si>
+  <si>
+    <t>Used to delete section</t>
+  </si>
+  <si>
+    <t>Post Material</t>
+  </si>
+  <si>
+    <t>Get Material</t>
+  </si>
+  <si>
+    <t>Get Material Detail</t>
+  </si>
+  <si>
+    <t>Put Material</t>
+  </si>
+  <si>
+    <t>Delete Material</t>
+  </si>
+  <si>
+    <t>Used to create new material</t>
+  </si>
+  <si>
+    <t>Used to view all material</t>
+  </si>
+  <si>
+    <t>Used to view material by id</t>
+  </si>
+  <si>
+    <t>Used to update material</t>
+  </si>
+  <si>
+    <t>Used to delete material</t>
+  </si>
+  <si>
+    <t>Post Review</t>
+  </si>
+  <si>
+    <t>Get Review</t>
+  </si>
+  <si>
+    <t>Get Review Detail</t>
+  </si>
+  <si>
+    <t>Put Review</t>
+  </si>
+  <si>
+    <t>Delete Review</t>
+  </si>
+  <si>
+    <t>Used to create new review</t>
+  </si>
+  <si>
+    <t>Used to view all review</t>
+  </si>
+  <si>
+    <t>Used to view review by id</t>
+  </si>
+  <si>
+    <t>Used to update review</t>
+  </si>
+  <si>
+    <t>Used to delete review</t>
+  </si>
+  <si>
+    <t>Used to create new tool</t>
+  </si>
+  <si>
+    <t>Used to view all tool</t>
+  </si>
+  <si>
+    <t>Used to view tool by id</t>
+  </si>
+  <si>
+    <t>Used to update tool</t>
+  </si>
+  <si>
+    <t>Used to delete tool</t>
+  </si>
+  <si>
+    <t>Filtering Course</t>
+  </si>
+  <si>
+    <t>Search Course</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Feature used to filtering course</t>
+  </si>
+  <si>
+    <t>Feature used to view or searching course by Top course</t>
+  </si>
+  <si>
+    <t>Feature used to searching course</t>
+  </si>
+  <si>
+    <t>Profil</t>
   </si>
 </sst>
 </file>
@@ -388,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -409,12 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -424,12 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,6 +676,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,68 +1025,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -852,21 +1109,21 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -874,11 +1131,11 @@
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -886,25 +1143,25 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
@@ -912,331 +1169,271 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1244,22 +1441,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1870,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1290,21 +1888,21 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1312,11 +1910,11 @@
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1324,25 +1922,216 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Role Matrix Eductiv.xlsx
+++ b/Role Matrix Eductiv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="630" windowWidth="19635" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Web UI" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>Alterra Academy</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Course</t>
   </si>
   <si>
-    <t>Feature used to view members and add members</t>
-  </si>
-  <si>
-    <t>Feature used to view request and acc request member</t>
-  </si>
-  <si>
     <t>Feature used to CRUD course</t>
   </si>
   <si>
@@ -467,6 +461,21 @@
   </si>
   <si>
     <t>Profil</t>
+  </si>
+  <si>
+    <t>Email Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature used to send email for admin </t>
+  </si>
+  <si>
+    <t>Feature used to view request and delete request member</t>
+  </si>
+  <si>
+    <t>Feature used to CRUD member</t>
+  </si>
+  <si>
+    <t>Feature used to send email for admin</t>
   </si>
 </sst>
 </file>
@@ -650,60 +659,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,68 +1034,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1109,7 +1118,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1123,7 +1132,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1147,64 +1156,64 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>10</v>
@@ -1213,10 +1222,10 @@
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>10</v>
@@ -1225,10 +1234,10 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>10</v>
@@ -1237,10 +1246,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>10</v>
@@ -1249,10 +1258,10 @@
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
@@ -1261,179 +1270,164 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C33" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1443,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1471,370 +1465,370 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="24" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="C9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="24" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C12" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="24" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C13" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="24" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C16" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="24" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="C18" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="24" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="B29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="B34" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="C39" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="C40" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C41" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="24" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C42" s="12" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1856,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1864,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,7 +1882,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1902,7 +1896,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1914,7 +1908,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1926,197 +1920,196 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="7" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2127,7 +2120,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J1" sqref="J1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
